--- a/src/main/java/TestData/userLogin.xlsx
+++ b/src/main/java/TestData/userLogin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
